--- a/test/output/data_schema_properties_2016_sample.xlsx
+++ b/test/output/data_schema_properties_2016_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>column</t>
   </si>
@@ -47,246 +47,243 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[14363676, 11661210, 11033321, 12328071, 13953646]</t>
+    <t>[11425719, 14448493, 14060395, 11392759, 14133869]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 13.0, 1.0]</t>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>architecturalstyletypeid</t>
   </si>
   <si>
+    <t>[7.0, 7.0, 7.0, 8.0, 8.0]</t>
+  </si>
+  <si>
+    <t>basementsqft</t>
+  </si>
+  <si>
+    <t>[252.0, 640.0, 670.0, 138.0, 864.0]</t>
+  </si>
+  <si>
+    <t>bathroomcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 1.0, 2.0, 1.0, 2.0]</t>
+  </si>
+  <si>
+    <t>bedroomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 3.0, 0.0, 2.0, 3.0]</t>
+  </si>
+  <si>
+    <t>buildingclasstypeid</t>
+  </si>
+  <si>
+    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
+  </si>
+  <si>
+    <t>buildingqualitytypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 7.0, 7.0, 7.0, 4.0]</t>
+  </si>
+  <si>
+    <t>calculatedbathnbr</t>
+  </si>
+  <si>
+    <t>[3.0, 2.0, 1.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>decktypeid</t>
+  </si>
+  <si>
+    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
+  </si>
+  <si>
+    <t>finishedfloor1squarefeet</t>
+  </si>
+  <si>
+    <t>[1267.0, 1509.0, 1053.0, 1689.0, 2690.0]</t>
+  </si>
+  <si>
+    <t>calculatedfinishedsquarefeet</t>
+  </si>
+  <si>
+    <t>[1418.0, 1623.0, 1825.0, 1370.0, 1004.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet12</t>
+  </si>
+  <si>
+    <t>[1541.0, 867.0, 1640.0, 999.0, 1730.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet13</t>
+  </si>
+  <si>
+    <t>[860.0, 1680.0, 460.0, 780.0, 460.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet15</t>
+  </si>
+  <si>
+    <t>[3372.0, 5782.0, 2799.0, 2408.0, 14180.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet50</t>
+  </si>
+  <si>
+    <t>[1270.0, 1803.0, 2340.0, 1483.0, 1023.0]</t>
+  </si>
+  <si>
+    <t>finishedsquarefeet6</t>
+  </si>
+  <si>
+    <t>[384.0, 4880.0, 4302.0, 2449.0, 3987.0]</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>[6059.0, 6059.0, 6037.0, 6037.0, 6059.0]</t>
+  </si>
+  <si>
+    <t>fireplacecnt</t>
+  </si>
+  <si>
+    <t>fullbathcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 2.0, 1.0]</t>
+  </si>
+  <si>
+    <t>garagecarcnt</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 1.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>garagetotalsqft</t>
+  </si>
+  <si>
+    <t>[360.0, 876.0, 460.0, 751.0, 300.0]</t>
+  </si>
+  <si>
+    <t>hashottuborspa</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>[True, True, True, True, True]</t>
+  </si>
+  <si>
+    <t>heatingorsystemtypeid</t>
+  </si>
+  <si>
+    <t>[7.0, 2.0, 2.0, 2.0, 7.0]</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>[33883912.0, 33740200.0, 34025311.0, 33794763.0, 34011665.0]</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>[-118478579.0, -117918926.0, -118067368.0, -118471000.0, -118351000.0]</t>
+  </si>
+  <si>
+    <t>lotsizesquarefeet</t>
+  </si>
+  <si>
+    <t>[5953.0, 7440.0, 63061.0, 7486.0, 7508.0]</t>
+  </si>
+  <si>
+    <t>poolcnt</t>
+  </si>
+  <si>
+    <t>poolsizesum</t>
+  </si>
+  <si>
+    <t>[640.0, 450.0, 600.0, 450.0, 640.0]</t>
+  </si>
+  <si>
+    <t>pooltypeid10</t>
+  </si>
+  <si>
+    <t>pooltypeid2</t>
+  </si>
+  <si>
+    <t>pooltypeid7</t>
+  </si>
+  <si>
+    <t>propertycountylandusecode</t>
+  </si>
+  <si>
+    <t>['0100', '010C', '010C', '1111', '010D']</t>
+  </si>
+  <si>
+    <t>propertylandusetypeid</t>
+  </si>
+  <si>
+    <t>[261.0, 263.0, 261.0, 261.0, 248.0]</t>
+  </si>
+  <si>
+    <t>propertyzoningdesc</t>
+  </si>
+  <si>
+    <t>['CVR110000*', 'LAR1', 'DOR105', 'LCR17500*', 'LARE11']</t>
+  </si>
+  <si>
+    <t>rawcensustractandblock</t>
+  </si>
+  <si>
+    <t>[60371153.011006996, 60372384.001003005, 60371061.112004004, 60374309.021019995, 60374051.011000998]</t>
+  </si>
+  <si>
+    <t>regionidcity</t>
+  </si>
+  <si>
+    <t>[14542.0, 4406.0, 17597.0, 33727.0, 8384.0]</t>
+  </si>
+  <si>
+    <t>regionidcounty</t>
+  </si>
+  <si>
+    <t>[3101.0, 3101.0, 3101.0, 2061.0, 3101.0]</t>
+  </si>
+  <si>
+    <t>regionidneighborhood</t>
+  </si>
+  <si>
+    <t>[13017.0, 13017.0, 273611.0, 763218.0, 268473.0]</t>
+  </si>
+  <si>
+    <t>regionidzip</t>
+  </si>
+  <si>
+    <t>[96022.0, 97089.0, 96193.0, 96379.0, 96241.0]</t>
+  </si>
+  <si>
+    <t>roomcnt</t>
+  </si>
+  <si>
+    <t>[0.0, 7.0, 0.0, 6.0, 4.0]</t>
+  </si>
+  <si>
+    <t>storytypeid</t>
+  </si>
+  <si>
     <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
-    <t>basementsqft</t>
-  </si>
-  <si>
-    <t>[81.0, 440.0, 165.0, 240.0, 182.0]</t>
-  </si>
-  <si>
-    <t>bathroomcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 1.0, 2.0, 1.0, 2.0]</t>
-  </si>
-  <si>
-    <t>bedroomcnt</t>
-  </si>
-  <si>
-    <t>[3.0, 3.0, 2.0, 3.0, 5.0]</t>
-  </si>
-  <si>
-    <t>buildingclasstypeid</t>
-  </si>
-  <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 3.0]</t>
-  </si>
-  <si>
-    <t>buildingqualitytypeid</t>
-  </si>
-  <si>
-    <t>[7.0, 7.0, 10.0, 4.0, 4.0]</t>
-  </si>
-  <si>
-    <t>calculatedbathnbr</t>
-  </si>
-  <si>
-    <t>[5.0, 2.0, 2.0, 2.0, 3.0]</t>
-  </si>
-  <si>
-    <t>decktypeid</t>
-  </si>
-  <si>
-    <t>[66.0, 66.0, 66.0, 66.0, 66.0]</t>
-  </si>
-  <si>
-    <t>finishedfloor1squarefeet</t>
-  </si>
-  <si>
-    <t>[1369.0, 1214.0, 1599.0, 627.0, 1367.0]</t>
-  </si>
-  <si>
-    <t>calculatedfinishedsquarefeet</t>
-  </si>
-  <si>
-    <t>[1785.0, 2040.0, 1985.0, 2786.0, 1162.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet12</t>
-  </si>
-  <si>
-    <t>[870.0, 1547.0, 1886.0, 1483.0, 1700.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet13</t>
-  </si>
-  <si>
-    <t>[840.0, 1344.0, 1920.0, 1080.0, 1584.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet15</t>
-  </si>
-  <si>
-    <t>[1782.0, 1849.0, 3100.0, 2789.0, 1776.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet50</t>
-  </si>
-  <si>
-    <t>[1080.0, 1226.0, 1881.0, 566.0, 1020.0]</t>
-  </si>
-  <si>
-    <t>finishedsquarefeet6</t>
-  </si>
-  <si>
-    <t>[1587.0, 1434.0, 3455.0, 2600.0, 3322.0]</t>
-  </si>
-  <si>
-    <t>fips</t>
-  </si>
-  <si>
-    <t>[6111.0, 6037.0, 6059.0, 6059.0, 6111.0]</t>
-  </si>
-  <si>
-    <t>fireplacecnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 1.0, 2.0, 1.0]</t>
-  </si>
-  <si>
-    <t>fullbathcnt</t>
-  </si>
-  <si>
-    <t>[3.0, 2.0, 3.0, 3.0, 4.0]</t>
-  </si>
-  <si>
-    <t>garagecarcnt</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 2.0, 3.0, 1.0]</t>
-  </si>
-  <si>
-    <t>garagetotalsqft</t>
-  </si>
-  <si>
-    <t>[471.0, 660.0, 437.0, 324.0, 360.0]</t>
-  </si>
-  <si>
-    <t>hashottuborspa</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>[True, True, True, True, True]</t>
-  </si>
-  <si>
-    <t>heatingorsystemtypeid</t>
-  </si>
-  <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 7.0]</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>[33925315.0, 34218156.0, 34114469.0, 34560765.0, 34047637.0]</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>[-118447409.0, -117865418.0, -118201167.0, -118267757.0, -118159697.0]</t>
-  </si>
-  <si>
-    <t>lotsizesquarefeet</t>
-  </si>
-  <si>
-    <t>[7021.0, 6324.0, 986080.0, 6291.0, 15715.0]</t>
-  </si>
-  <si>
-    <t>poolcnt</t>
-  </si>
-  <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
-    <t>poolsizesum</t>
-  </si>
-  <si>
-    <t>[544.0, 600.0, 508.0, 240.0, 430.0]</t>
-  </si>
-  <si>
-    <t>pooltypeid10</t>
-  </si>
-  <si>
-    <t>pooltypeid2</t>
-  </si>
-  <si>
-    <t>pooltypeid7</t>
-  </si>
-  <si>
-    <t>propertycountylandusecode</t>
-  </si>
-  <si>
-    <t>['0100', '122', '010C', '122', '122']</t>
-  </si>
-  <si>
-    <t>propertylandusetypeid</t>
-  </si>
-  <si>
-    <t>[266.0, 261.0, 246.0, 266.0, 261.0]</t>
-  </si>
-  <si>
-    <t>propertyzoningdesc</t>
-  </si>
-  <si>
-    <t>['BPR1*', 'LAR1', 'LAA1', 'LAR1', 'LBPD10']</t>
-  </si>
-  <si>
-    <t>rawcensustractandblock</t>
-  </si>
-  <si>
-    <t>[60372741.001015, 60375730.043001004, 60590219.172022998, 60373115.003012002, 60590421.033]</t>
-  </si>
-  <si>
-    <t>regionidcity</t>
-  </si>
-  <si>
-    <t>[50677.0, 54722.0, 12447.0, 10389.0, 24812.0]</t>
-  </si>
-  <si>
-    <t>regionidcounty</t>
-  </si>
-  <si>
-    <t>[1286.0, 3101.0, 2061.0, 3101.0, 3101.0]</t>
-  </si>
-  <si>
-    <t>regionidneighborhood</t>
-  </si>
-  <si>
-    <t>[118208.0, 115609.0, 113713.0, 764142.0, 41466.0]</t>
-  </si>
-  <si>
-    <t>regionidzip</t>
-  </si>
-  <si>
-    <t>[96163.0, 96192.0, 97005.0, 96987.0, 97026.0]</t>
-  </si>
-  <si>
-    <t>roomcnt</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>storytypeid</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
@@ -302,25 +299,25 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[704.0, 120.0, 160.0, 168.0, 399.0]</t>
+    <t>[360.0, 192.0, 288.0, 200.0, 360.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[180.0, 678.0, 320.0, 336.0, 189.0]</t>
+    <t>[150.0, 80.0, 550.0, 144.0, 310.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1974.0, 1948.0, 1979.0, 1942.0, 1995.0]</t>
+    <t>[1982.0, 1922.0, 1995.0, 1952.0, 1973.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 2.0, 1.0, 1.0, 1.0]</t>
+    <t>[2.0, 2.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -329,13 +326,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[79550.0, 77914.0, 127881.0, 226845.0, 45129.0]</t>
+    <t>[68664.0, 155000.0, 147498.0, 163761.0, 761465.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[440470.0, 66637.0, 442499.0, 224395.0, 2581305.0]</t>
+    <t>[1264572.0, 438590.0, 112875.0, 750000.0, 361874.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -347,13 +344,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[128869.0, 253156.0, 379432.0, 80558.0, 149431.0]</t>
+    <t>[89233.0, 46167.0, 286981.0, 115107.0, 218996.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[2686.1199999999999, 2355.3299999999999, 508.63999999999999, 7699.6999999999998, 4470.6300000000001]</t>
+    <t>[6446.2799999999997, 5588.46, 337.66000000000003, 3462.7600000000002, 5444.6599999999999]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -365,13 +362,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 12.0, 14.0, 14.0, 10.0]</t>
+    <t>[14.0, 13.0, 15.0, 15.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60590219212008.0, 60590875053007.0, 60372756021016.0, 60590320154006.0, 60590875043004.0]</t>
+    <t>[60374013043008.0, 60379203381024.0, 60375415003003.0, 60375362005007.0, 60375440023004.0]</t>
   </si>
 </sst>
 </file>
@@ -781,13 +778,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
     <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="21"/>
-    <col customWidth="1" max="5" min="5" width="18"/>
-    <col customWidth="1" max="6" min="6" width="24"/>
-    <col customWidth="1" max="7" min="7" width="24"/>
-    <col customWidth="1" max="8" min="8" width="25.5"/>
+    <col customWidth="1" max="4" min="4" width="30"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="30"/>
+    <col customWidth="1" max="7" min="7" width="30"/>
+    <col customWidth="1" max="8" min="8" width="30"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:8"/>
@@ -831,16 +828,16 @@
         <v>298521</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10711747</v>
+        <v>10711725</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12541309</v>
+        <v>12543083</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>168183606</v>
+        <v>168183609</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7801691.691217214</v>
+        <v>7802181.946203688</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="3" spans="1:8">
@@ -854,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
@@ -866,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.152614824068546</v>
+        <v>3.147240240156862</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="4" spans="1:8">
@@ -880,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2</v>
@@ -889,10 +886,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.436089501518546</v>
+        <v>2.326440154385232</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="5" spans="1:8">
@@ -906,19 +903,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>751</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8516</v>
+        <v>3105</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>538.6279706828607</v>
+        <v>568.5325648686249</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:8">
@@ -944,7 +941,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.078132581031224</v>
+        <v>1.075310967048891</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:8">
@@ -958,7 +955,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
@@ -967,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1.277126015118429</v>
+        <v>1.272301088163004</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:8">
@@ -996,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.5016803477144972</v>
+        <v>0.4908757731792134</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:8">
@@ -1010,7 +1007,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
@@ -1022,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1.800393639603793</v>
+        <v>1.805465106593297</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:8">
@@ -1036,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>1</v>
@@ -1045,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.9985839030740623</v>
+        <v>0.9987123233647401</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:8">
@@ -1088,19 +1085,19 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>4604</v>
+        <v>2509</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>31303</v>
+        <v>15998</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>632.8669819186815</v>
+        <v>630.169333768741</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:8">
@@ -1114,19 +1111,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>7019</v>
+        <v>6997</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>952576</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>2568.504707112746</v>
+        <v>2280.508271051942</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:8">
@@ -1140,19 +1137,19 @@
         <v>34</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>6630</v>
+        <v>6534</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>1540</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>290345</v>
+        <v>108360</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>1082.911687575495</v>
+        <v>956.3130133768423</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:8">
@@ -1166,19 +1163,19 @@
         <v>36</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>1296</v>
+        <v>1248</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>2688</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>357.0497635764946</v>
+        <v>353.4190652550968</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" spans="1:8">
@@ -1192,19 +1189,19 @@
         <v>38</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>8816</v>
+        <v>4205</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2172</v>
+        <v>2159</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>820242</v>
+        <v>342675</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>5447.414051804521</v>
+        <v>4261.225191924329</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" spans="1:8">
@@ -1218,19 +1215,19 @@
         <v>40</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>4802</v>
+        <v>2542</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>31303</v>
+        <v>15998</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>664.4870695844113</v>
+        <v>654.8427048762096</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" spans="1:8">
@@ -1244,19 +1241,19 @@
         <v>42</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>4251</v>
+        <v>1481</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>1992</v>
+        <v>2030.5</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>952576</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>7695.128064476132</v>
+        <v>20065.53308591182</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="19" spans="1:8">
@@ -1282,7 +1279,7 @@
         <v>6111</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>20.16063544565024</v>
+        <v>20.19230246138836</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="20" spans="1:8">
@@ -1293,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>1</v>
@@ -1305,24 +1302,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.4613665669468575</v>
+        <v>0.4598297247608603</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" spans="1:8">
       <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>1</v>
@@ -1331,24 +1328,24 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0.9899199510016422</v>
+        <v>0.9890608564787526</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" spans="1:8">
       <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
@@ -1357,24 +1354,24 @@
         <v>2</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>0.6113562631884898</v>
+        <v>0.6157655759747827</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:8">
       <c r="A23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="4" t="n">
-        <v>1640</v>
+        <v>1197</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -1383,21 +1380,21 @@
         <v>441</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>7415</v>
+        <v>6435</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>244.3906322178984</v>
+        <v>246.8977532358967</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" spans="1:8">
       <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1</v>
@@ -1417,13 +1414,13 @@
     </row>
     <row customHeight="1" ht="20" r="25" spans="1:8">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>13</v>
@@ -1438,96 +1435,96 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>3.300179476207549</v>
+        <v>3.303951579633001</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:8">
       <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="4" t="n">
-        <v>220533</v>
+        <v>219867</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>33339267</v>
+        <v>33339485</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>34008607</v>
+        <v>34007193.5</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>34819650</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>243199.2148412582</v>
+        <v>243604.174913874</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:8">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D27" s="4" t="n">
-        <v>226989</v>
+        <v>226191</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>-119474845</v>
+        <v>-119475780</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>-118172282</v>
+        <v>-118172902</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-117554831</v>
+        <v>-117554482</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>345532.9523289378</v>
+        <v>344470.5536222029</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:8">
       <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D28" s="4" t="n">
-        <v>32010</v>
+        <v>31061</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>7000</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>14043439</v>
+        <v>26166748</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>104811.0659398462</v>
+        <v>120756.7506684216</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>1</v>
@@ -1547,39 +1544,39 @@
     </row>
     <row customHeight="1" ht="20" r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>907</v>
+        <v>472</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>495</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>17410</v>
+        <v>3848</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>191.3198624050437</v>
+        <v>176.4728302476051</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>1</v>
@@ -1599,13 +1596,13 @@
     </row>
     <row customHeight="1" ht="20" r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>1</v>
@@ -1625,13 +1622,13 @@
     </row>
     <row customHeight="1" ht="20" r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>1</v>
@@ -1651,16 +1648,16 @@
     </row>
     <row customHeight="1" ht="20" r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E34" s="4" t="n">
         <v/>
@@ -1677,13 +1674,13 @@
     </row>
     <row customHeight="1" ht="20" r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>15</v>
@@ -1698,21 +1695,21 @@
         <v>275</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>15.6545177978958</v>
+        <v>15.99847073864748</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>3297</v>
+        <v>2954</v>
       </c>
       <c r="E36" s="4" t="n">
         <v/>
@@ -1729,42 +1726,42 @@
     </row>
     <row customHeight="1" ht="20" r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>77045</v>
+        <v>77021</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>60371011.101</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>60375714.00200401</v>
+        <v>60375711.0250005</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>61110091.003011</v>
+        <v>61110091.00300501</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>200691.6508741757</v>
+        <v>200406.8915507114</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>3491</v>
@@ -1776,18 +1773,18 @@
         <v>396556</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>51250.01290865285</v>
+        <v>50909.51277790196</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>3</v>
@@ -1802,21 +1799,21 @@
         <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>788.7806828473049</v>
+        <v>788.2521048674497</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>6952</v>
@@ -1828,18 +1825,18 @@
         <v>764167</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>165767.421140748</v>
+        <v>165644.9783047646</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>391</v>
@@ -1854,21 +1851,21 @@
         <v>399675</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>3660.404614246133</v>
+        <v>3913.452214320626</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1877,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2.834907737438395</v>
+        <v>2.839351749273316</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -1911,16 +1908,16 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -1929,24 +1926,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.11787908333418</v>
+        <v>0.1296781411372922</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:8">
       <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D45" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>4</v>
@@ -1958,21 +1955,21 @@
         <v>13</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>0.3840218134879771</v>
+        <v>0.3365913812872649</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -1981,79 +1978,79 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>865</v>
+        <v>708</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2.458074718225006</v>
+        <v>2.418067163217814</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:8">
       <c r="A47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" s="4" t="n">
-        <v>1636</v>
+        <v>880</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>270</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>7983</v>
+        <v>3120</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>233.0848636100392</v>
+        <v>219.112314595274</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:8">
       <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D48" s="4" t="n">
-        <v>594</v>
+        <v>158</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>6141</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>369.6616614365719</v>
+        <v>279.6031914089217</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:8">
       <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>138</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>1963</v>
@@ -2062,21 +2059,21 @@
         <v>2015</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>23.4587986693032</v>
+        <v>23.43523914255886</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:8">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D50" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -2085,21 +2082,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.5367748471542581</v>
+        <v>0.5371742341003547</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
@@ -2119,143 +2116,143 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:8">
       <c r="A52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>136248</v>
+        <v>134757</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>122723</v>
+        <v>122590</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>65407469</v>
+        <v>92906760</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>327035.1369395955</v>
+        <v>354456.6999428606</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:8">
       <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D53" s="4" t="n">
-        <v>160341</v>
+        <v>158384</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>306356</v>
+        <v>306389.5</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>70646908</v>
+        <v>164246219</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>649851.7715039053</v>
+        <v>731799.6268440896</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:8">
       <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D54" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.04034515674073755</v>
+        <v>0.02354980742693211</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:8">
       <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D55" s="4" t="n">
-        <v>139691</v>
+        <v>137438</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>166976</v>
+        <v>167263</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>34546722</v>
+        <v>90246219</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>417012.3772755844</v>
+        <v>469354.1456395763</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:8">
       <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D56" s="4" t="n">
-        <v>250753</v>
+        <v>248767</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.34</v>
+        <v>5.02</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>3989.59</v>
+        <v>3993.66</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>3399589.85</v>
+        <v>1548030.07</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>9778.317526436691</v>
+        <v>8544.509834821083</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:8">
       <c r="A57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
@@ -2275,16 +2272,16 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:8">
       <c r="A58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D58" s="4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -2293,36 +2290,36 @@
         <v>14</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>2.580982867075986</v>
+        <v>2.430897385154984</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:8">
       <c r="A59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D59" s="4" t="n">
-        <v>76347</v>
+        <v>75689</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>-1</v>
+        <v>60371011101000</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>60375714002005</v>
+        <v>60375714002008</v>
       </c>
       <c r="G59" s="4" t="n">
         <v>61110091003023</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>228823766755.8273</v>
+        <v>200714286313.934</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +2340,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2:B59" type="list">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59" type="list">
       <formula1>"key,numeric,str,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test/output/data_schema_properties_2016_sample.xlsx
+++ b/test/output/data_schema_properties_2016_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>column</t>
   </si>
@@ -47,7 +47,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11425719, 14448493, 14060395, 11392759, 14133869]</t>
+    <t>[11250658, 11587013, 14341146, 12780547, 14380745]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -59,43 +59,43 @@
     <t>architecturalstyletypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 8.0, 8.0]</t>
+    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[252.0, 640.0, 670.0, 138.0, 864.0]</t>
+    <t>[86.0, 510.0, 135.0, 685.0, 384.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 2.0, 1.0, 2.0]</t>
+    <t>[2.0, 1.0, 3.0, 1.0, 5.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[0.0, 3.0, 0.0, 2.0, 3.0]</t>
+    <t>[4.0, 4.0, 2.0, 3.0, 3.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 4.0]</t>
+    <t>[7.0, 7.0, 7.0, 4.0, 7.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[3.0, 2.0, 1.0, 2.0, 2.0]</t>
+    <t>[3.0, 1.0, 1.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -107,70 +107,73 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1267.0, 1509.0, 1053.0, 1689.0, 2690.0]</t>
+    <t>[1923.0, 2494.0, 1345.0, 775.0, 2092.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1418.0, 1623.0, 1825.0, 1370.0, 1004.0]</t>
+    <t>[1128.0, 1111.0, 3930.0, 1281.0, 1144.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1541.0, 867.0, 1640.0, 999.0, 1730.0]</t>
+    <t>[5452.0, 2284.0, 2957.0, 1064.0, 583.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[860.0, 1680.0, 460.0, 780.0, 460.0]</t>
+    <t>[560.0, 1624.0, 1920.0, 1904.0, 570.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[3372.0, 5782.0, 2799.0, 2408.0, 14180.0]</t>
+    <t>[1316.0, 2410.0, 1536.0, 1583.0, 1716.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1270.0, 1803.0, 2340.0, 1483.0, 1023.0]</t>
+    <t>[858.0, 1254.0, 1162.0, 1332.0, 936.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[384.0, 4880.0, 4302.0, 2449.0, 3987.0]</t>
+    <t>[3330.0, 1650.0, 2754.0, 2302.0, 772.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6059.0, 6059.0, 6037.0, 6037.0, 6059.0]</t>
+    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6059.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
+    <t>[1.0, 1.0, 1.0, 1.0, 3.0]</t>
+  </si>
+  <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 1.0]</t>
+    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 1.0, 2.0, 2.0]</t>
+    <t>[2.0, 1.0, 2.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[360.0, 876.0, 460.0, 751.0, 300.0]</t>
+    <t>[588.0, 447.0, 0.0, 462.0, 652.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -185,25 +188,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[7.0, 2.0, 2.0, 2.0, 7.0]</t>
+    <t>[2.0, 7.0, 2.0, 2.0, 7.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33883912.0, 33740200.0, 34025311.0, 33794763.0, 34011665.0]</t>
+    <t>[33991328.0, 33641600.0, 33763004.0, 34464584.0, 34707984.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118478579.0, -117918926.0, -118067368.0, -118471000.0, -118351000.0]</t>
+    <t>[-118019657.0, -117899954.0, -118060030.0, -118335470.0, -117961279.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[5953.0, 7440.0, 63061.0, 7486.0, 7508.0]</t>
+    <t>[6449.0, 5962.0, 7204.0, 5540.0, 9703.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -212,7 +215,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[640.0, 450.0, 600.0, 450.0, 640.0]</t>
+    <t>[352.0, 606.0, 428.0, 408.0, 680.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -227,63 +230,60 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '010C', '010C', '1111', '010D']</t>
+    <t>['1128', '010C', '1129', '0100', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 263.0, 261.0, 261.0, 248.0]</t>
+    <t>[261.0, 261.0, 261.0, 266.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['CVR110000*', 'LAR1', 'DOR105', 'LCR17500*', 'LARE11']</t>
+    <t>['LARD2', 'LAR3', 'CVR17500*', 'LAR1', 'POR17500*']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60371153.011006996, 60372384.001003005, 60371061.112004004, 60374309.021019995, 60374051.011000998]</t>
+    <t>[60590423.372001, 60371288.021004006, 60591101.041016005, 60371835.103002004, 60372288.004003]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[14542.0, 4406.0, 17597.0, 33727.0, 8384.0]</t>
+    <t>[12447.0, 25953.0, 12447.0, 46298.0, 33252.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 3101.0, 3101.0, 2061.0, 3101.0]</t>
+    <t>[3101.0, 3101.0, 3101.0, 3101.0, 2061.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[13017.0, 13017.0, 273611.0, 763218.0, 268473.0]</t>
+    <t>[33952.0, 156012.0, 268496.0, 19810.0, 274293.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[96022.0, 97089.0, 96193.0, 96379.0, 96241.0]</t>
+    <t>[97041.0, 96149.0, 96225.0, 97040.0, 96169.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 7.0, 0.0, 6.0, 4.0]</t>
+    <t>[0.0, 0.0, 0.0, 5.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 7.0, 7.0]</t>
-  </si>
-  <si>
     <t>threequarterbathnbr</t>
   </si>
   <si>
@@ -299,40 +299,37 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[360.0, 192.0, 288.0, 200.0, 360.0]</t>
+    <t>[308.0, 300.0, 297.0, 160.0, 160.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[150.0, 80.0, 550.0, 144.0, 310.0]</t>
+    <t>[153.0, 74.0, 250.0, 204.0, 320.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1982.0, 1922.0, 1995.0, 1952.0, 1973.0]</t>
+    <t>[1928.0, 1984.0, 1921.0, 1980.0, 1957.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 1.0, 1.0, 1.0]</t>
-  </si>
-  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[68664.0, 155000.0, 147498.0, 163761.0, 761465.0]</t>
+    <t>[165000.0, 102300.0, 51841.0, 61177.0, 321443.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[1264572.0, 438590.0, 112875.0, 750000.0, 361874.0]</t>
+    <t>[696000.0, 344129.0, 287358.0, 600000.0, 391168.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -344,13 +341,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[89233.0, 46167.0, 286981.0, 115107.0, 218996.0]</t>
+    <t>[103599.0, 396263.0, 47915.0, 274204.0, 242551.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[6446.2799999999997, 5588.46, 337.66000000000003, 3462.7600000000002, 5444.6599999999999]</t>
+    <t>[2603.22, 5198.4, 794.25, 5533.08, 1152.36]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -362,13 +359,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 13.0, 15.0, 15.0, 15.0]</t>
+    <t>[14.0, 13.0, 14.0, 14.0, 8.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60374013043008.0, 60379203381024.0, 60375415003003.0, 60375362005007.0, 60375440023004.0]</t>
+    <t>[60374620012000.0, 60373103003004.0, 61110085002007.0, 60375405023006.0, 60590016023002.0]</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
     <cellStyle builtinId="45" hidden="0" name="Accent5" xfId="1"/>
     <cellStyle builtinId="28" hidden="0" name="Neutral" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="009C0006"/>
@@ -472,6 +469,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="0008306B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="009ECAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00A63603"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FDD0A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="003F007D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00DADAEB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -778,13 +805,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
     <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
-    <col customWidth="1" max="6" min="6" width="30"/>
-    <col customWidth="1" max="7" min="7" width="30"/>
-    <col customWidth="1" max="8" min="8" width="30"/>
+    <col customWidth="1" max="4" min="4" width="21"/>
+    <col customWidth="1" max="5" min="5" width="18"/>
+    <col customWidth="1" max="6" min="6" width="24"/>
+    <col customWidth="1" max="7" min="7" width="24"/>
+    <col customWidth="1" max="8" min="8" width="25.5"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20" r="0" spans="1:8"/>
@@ -828,16 +855,16 @@
         <v>298521</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10711725</v>
+        <v>10711728</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12543083</v>
+        <v>12546039</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>168183609</v>
+        <v>168183611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7802181.946203688</v>
+        <v>7887696.464638196</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="3" spans="1:8">
@@ -851,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>1</v>
@@ -863,7 +890,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.147240240156862</v>
+        <v>3.144561010097868</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="4" spans="1:8">
@@ -889,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.326440154385232</v>
+        <v>2.351704658989587</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="5" spans="1:8">
@@ -903,19 +930,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3105</v>
+        <v>8516</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>568.5325648686249</v>
+        <v>815.8693891750305</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="6" spans="1:8">
@@ -929,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
@@ -938,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.075310967048891</v>
+        <v>1.080087804848748</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" spans="1:8">
@@ -967,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1.272301088163004</v>
+        <v>1.279200185379511</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:8">
@@ -993,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.4908757731792134</v>
+        <v>0.5209368126273334</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:8">
@@ -1019,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1.805465106593297</v>
+        <v>1.808831500431643</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="10" spans="1:8">
@@ -1033,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>1</v>
@@ -1042,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.9987123233647401</v>
+        <v>1.002403428140191</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="11" spans="1:8">
@@ -1085,19 +1112,19 @@
         <v>30</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>2509</v>
+        <v>2560</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>15998</v>
+        <v>10598</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>630.169333768741</v>
+        <v>626.012790187926</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="13" spans="1:8">
@@ -1111,19 +1138,19 @@
         <v>32</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>6997</v>
+        <v>6939</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>952576</v>
+        <v>221276</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>2280.508271051942</v>
+        <v>1458.664835872536</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="14" spans="1:8">
@@ -1137,7 +1164,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>6534</v>
+        <v>6455</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>1</v>
@@ -1146,10 +1173,10 @@
         <v>1540</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>108360</v>
+        <v>52503</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>956.3130133768423</v>
+        <v>929.9963693593733</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="15" spans="1:8">
@@ -1166,16 +1193,16 @@
         <v>108</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>2400</v>
+        <v>2176</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>353.4190652550968</v>
+        <v>351.5478465785827</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="16" spans="1:8">
@@ -1189,19 +1216,19 @@
         <v>38</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>4205</v>
+        <v>4230</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2159</v>
+        <v>2183</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>342675</v>
+        <v>221276</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>4261.225191924329</v>
+        <v>4364.656879903817</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="17" spans="1:8">
@@ -1215,19 +1242,19 @@
         <v>40</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>2542</v>
+        <v>2592</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>15998</v>
+        <v>20618</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>654.8427048762096</v>
+        <v>667.9212786939352</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="18" spans="1:8">
@@ -1241,19 +1268,19 @@
         <v>42</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>2030.5</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>952576</v>
+        <v>45597</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>20065.53308591182</v>
+        <v>1947.734606843461</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="19" spans="1:8">
@@ -1279,7 +1306,7 @@
         <v>6111</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>20.19230246138836</v>
+        <v>20.25947184119465</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="20" spans="1:8">
@@ -1290,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>7</v>
@@ -1302,24 +1329,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.4598297247608603</v>
+        <v>0.4594108153080332</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>1</v>
@@ -1328,21 +1355,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0.9890608564787526</v>
+        <v>0.9931934312724874</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>18</v>
@@ -1354,24 +1381,24 @@
         <v>2</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>0.6157655759747827</v>
+        <v>0.6147606020109194</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
@@ -1380,21 +1407,21 @@
         <v>441</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>6435</v>
+        <v>7339</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>246.8977532358967</v>
+        <v>246.1776557850097</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>1</v>
@@ -1414,16 +1441,16 @@
     </row>
     <row customHeight="1" ht="20" r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>1</v>
@@ -1435,90 +1462,90 @@
         <v>24</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>3.303951579633001</v>
+        <v>3.270934252341046</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>219867</v>
+        <v>219754</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>33339485</v>
+        <v>33324388</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>34007193.5</v>
+        <v>34008595</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>34819650</v>
+        <v>34819602</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>243604.174913874</v>
+        <v>243472.7348572878</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>226191</v>
+        <v>226386</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>-119475780</v>
+        <v>-119475391</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>-118172902</v>
+        <v>-118172790</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>-117554482</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>344470.5536222029</v>
+        <v>345690.3760912439</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>31061</v>
+        <v>31222</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>7000</v>
+        <v>7001</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>26166748</v>
+        <v>7159899</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>120756.7506684216</v>
+        <v>103643.7254531407</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -1544,33 +1571,33 @@
     </row>
     <row customHeight="1" ht="20" r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>495</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>3848</v>
+        <v>3600</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>176.4728302476051</v>
+        <v>163.5049547684068</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>9</v>
@@ -1596,7 +1623,7 @@
     </row>
     <row customHeight="1" ht="20" r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>9</v>
@@ -1622,7 +1649,7 @@
     </row>
     <row customHeight="1" ht="20" r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
@@ -1648,16 +1675,16 @@
     </row>
     <row customHeight="1" ht="20" r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="4" t="n">
         <v/>
@@ -1674,13 +1701,13 @@
     </row>
     <row customHeight="1" ht="20" r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="4" t="n">
         <v>15</v>
@@ -1695,21 +1722,21 @@
         <v>275</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>15.99847073864748</v>
+        <v>15.96268834242644</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>2954</v>
+        <v>2929</v>
       </c>
       <c r="E36" s="4" t="n">
         <v/>
@@ -1726,42 +1753,42 @@
     </row>
     <row customHeight="1" ht="20" r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>77021</v>
+        <v>77012</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>60371011.101</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>60375711.0250005</v>
+        <v>60375712.00200401</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>61110091.00300501</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>200406.8915507114</v>
+        <v>201078.0940550267</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>3491</v>
@@ -1773,18 +1800,18 @@
         <v>396556</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>50909.51277790196</v>
+        <v>50494.36507936323</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>3</v>
@@ -1799,21 +1826,21 @@
         <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>788.2521048674497</v>
+        <v>788.1217716763699</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>6952</v>
@@ -1825,21 +1852,21 @@
         <v>764167</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>165644.9783047646</v>
+        <v>165711.2046696858</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>95982</v>
@@ -1851,21 +1878,21 @@
         <v>399675</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>3913.452214320626</v>
+        <v>3913.506253446123</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>0</v>
@@ -1877,18 +1904,18 @@
         <v>77</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2.839351749273316</v>
+        <v>2.839309889211528</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -1917,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>1</v>
@@ -1926,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.1296781411372922</v>
+        <v>0.1110547874700786</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:8">
@@ -1955,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>0.3365913812872649</v>
+        <v>0.4111925217472083</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:8">
@@ -1969,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>1</v>
@@ -1978,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2.418067163217814</v>
+        <v>1.958172946621181</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:8">
@@ -1995,7 +2022,7 @@
         <v>94</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>11</v>
@@ -2004,10 +2031,10 @@
         <v>270</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>3120</v>
+        <v>3303</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>219.112314595274</v>
+        <v>225.7163608841136</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:8">
@@ -2021,19 +2048,19 @@
         <v>96</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>171</v>
+        <v>204.5</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1800</v>
+        <v>3668</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>279.6031914089217</v>
+        <v>419.568426267978</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:8">
@@ -2047,10 +2074,10 @@
         <v>98</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1801</v>
+        <v>1825</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>1963</v>
@@ -2059,7 +2086,7 @@
         <v>2015</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>23.43523914255886</v>
+        <v>23.41849821518234</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:8">
@@ -2070,10 +2097,10 @@
         <v>9</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>1</v>
@@ -2082,21 +2109,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.5371742341003547</v>
+        <v>0.5349498153237043</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>1</v>
@@ -2116,143 +2143,143 @@
     </row>
     <row customHeight="1" ht="20" r="52" spans="1:8">
       <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D52" s="4" t="n">
-        <v>134757</v>
+        <v>135020</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>122590</v>
+        <v>122777</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>92906760</v>
+        <v>64237000</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>354456.6999428606</v>
+        <v>321574.5532967097</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="53" spans="1:8">
       <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D53" s="4" t="n">
-        <v>158384</v>
+        <v>158377</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>306389.5</v>
+        <v>306527</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>164246219</v>
+        <v>88833748</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>731799.6268440896</v>
+        <v>692745.843458069</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="54" spans="1:8">
       <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D54" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.02354980742693211</v>
+        <v>0.03923779795012636</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="55" spans="1:8">
       <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D55" s="4" t="n">
-        <v>137438</v>
+        <v>137569</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>167263</v>
+        <v>167572.5</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>90246219</v>
+        <v>76498500</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>469354.1456395763</v>
+        <v>472115.6189809269</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="56" spans="1:8">
       <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D56" s="4" t="n">
-        <v>248767</v>
+        <v>248473</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>5.02</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>3993.66</v>
+        <v>3996.325</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>1548030.07</v>
+        <v>2772707.63</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>8544.509834821083</v>
+        <v>9751.765429252235</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="57" spans="1:8">
       <c r="A57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
@@ -2272,16 +2299,16 @@
     </row>
     <row customHeight="1" ht="20" r="58" spans="1:8">
       <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D58" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -2290,36 +2317,36 @@
         <v>14</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>2.430897385154984</v>
+        <v>2.41828125956623</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="59" spans="1:8">
       <c r="A59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D59" s="4" t="n">
-        <v>75689</v>
+        <v>75752</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>60371011101000</v>
+        <v>-1</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>60375714002008</v>
+        <v>60375714005009</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>61110091003023</v>
+        <v>61110091003005</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>200714286313.934</v>
+        <v>230465536753.9406</v>
       </c>
     </row>
   </sheetData>
@@ -2330,12 +2357,21 @@
     <cfRule dxfId="1" priority="2" stopIfTrue="1" type="expression">
       <formula>B2="key"</formula>
     </cfRule>
+    <cfRule dxfId="2" priority="3" stopIfTrue="1" type="expression">
+      <formula>B2="numeric"</formula>
+    </cfRule>
+    <cfRule dxfId="3" priority="4" stopIfTrue="1" type="expression">
+      <formula>B2="str"</formula>
+    </cfRule>
+    <cfRule dxfId="4" priority="5" stopIfTrue="1" type="expression">
+      <formula>B2="date"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D59">
-    <cfRule dxfId="0" priority="3" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="6" stopIfTrue="1" type="expression">
       <formula>D2=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="4" stopIfTrue="1" type="expression">
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
       <formula>D2=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/output/data_schema_properties_2016_sample.xlsx
+++ b/test/output/data_schema_properties_2016_sample.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="schema" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="schema" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>column</t>
   </si>
@@ -23,6 +23,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>sample_value</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11250658, 11587013, 14341146, 12780547, 14380745]</t>
+    <t>[11017285, 14382681, 14052885, 12028408, 14488601]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -65,37 +68,37 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[86.0, 510.0, 135.0, 685.0, 384.0]</t>
+    <t>[192.0, 728.0, 414.0, 179.0, 386.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 3.0, 1.0, 5.0]</t>
+    <t>[3.0, 3.0, 2.0, 1.0, 3.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 2.0, 3.0, 3.0]</t>
+    <t>[5.0, 2.0, 4.0, 2.0, 3.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[3.0, 4.0, 4.0, 4.0, 4.0]</t>
+    <t>[4.0, 4.0, 4.0, 4.0, 3.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 7.0, 7.0, 4.0, 7.0]</t>
+    <t>[4.0, 4.0, 7.0, 7.0, 7.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[3.0, 1.0, 1.0, 1.0, 2.0]</t>
+    <t>[3.0, 3.0, 1.5, 1.0, 1.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -107,73 +110,70 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1923.0, 2494.0, 1345.0, 775.0, 2092.0]</t>
+    <t>[1110.0, 1231.0, 620.0, 1274.0, 3385.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1128.0, 1111.0, 3930.0, 1281.0, 1144.0]</t>
+    <t>[1515.0, 1117.0, 1195.0, 2340.0, 1248.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[5452.0, 2284.0, 2957.0, 1064.0, 583.0]</t>
+    <t>[1826.0, 4764.0, 813.0, 960.0, 1783.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[560.0, 1624.0, 1920.0, 1904.0, 570.0]</t>
+    <t>[1536.0, 1440.0, 672.0, 672.0, 960.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[1316.0, 2410.0, 1536.0, 1583.0, 1716.0]</t>
+    <t>[6498.0, 1764.0, 1656.0, 1648.0, 933.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[858.0, 1254.0, 1162.0, 1332.0, 936.0]</t>
+    <t>[1608.0, 1715.0, 1305.0, 1057.0, 1406.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[3330.0, 1650.0, 2754.0, 2302.0, 772.0]</t>
+    <t>[2030.0, 1430.0, 1180.0, 756.0, 1794.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6037.0, 6037.0, 6059.0, 6059.0]</t>
+    <t>[6037.0, 6059.0, 6059.0, 6037.0, 6037.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 3.0]</t>
-  </si>
-  <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[2.0, 2.0, 3.0, 2.0, 1.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 2.0, 2.0, 1.0]</t>
+    <t>[2.0, 1.0, 1.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[588.0, 447.0, 0.0, 462.0, 652.0]</t>
+    <t>[400.0, 400.0, 525.0, 480.0, 712.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -188,25 +188,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 7.0, 2.0, 2.0, 7.0]</t>
+    <t>[2.0, 2.0, 7.0, 6.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33991328.0, 33641600.0, 33763004.0, 34464584.0, 34707984.0]</t>
+    <t>[33532700.0, 34015213.0, 33857580.0, 33736544.0, 34005594.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118019657.0, -117899954.0, -118060030.0, -118335470.0, -117961279.0]</t>
+    <t>[-118186308.0, -118241868.0, -118549778.0, -118441839.0, -118385423.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[6449.0, 5962.0, 7204.0, 5540.0, 9703.0]</t>
+    <t>[6432.0, 5304.0, 7161.0, 3557.0, 4720.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -215,7 +215,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[352.0, 606.0, 428.0, 408.0, 680.0]</t>
+    <t>[800.0, 609.0, 560.0, 449.0, 561.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -230,55 +230,55 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['1128', '010C', '1129', '0100', '0100']</t>
+    <t>['122', '0101', '0100', '122', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 261.0, 261.0, 266.0, 261.0]</t>
+    <t>[261.0, 247.0, 261.0, 261.0, 263.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LARD2', 'LAR3', 'CVR17500*', 'LAR1', 'POR17500*']</t>
+    <t>['DUR1', 'LAR1', 'AHR3*', 'LKR1YY', 'ATA10000*']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60590423.372001, 60371288.021004006, 60591101.041016005, 60371835.103002004, 60372288.004003]</t>
+    <t>[60375714.004006006, 60371201.051005006, 60375527.001015, 60590423.124019, 60372640.003003]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[12447.0, 25953.0, 12447.0, 46298.0, 33252.0]</t>
+    <t>[40227.0, 47019.0, 53571.0, 16764.0, 46098.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[3101.0, 3101.0, 3101.0, 3101.0, 2061.0]</t>
+    <t>[1286.0, 3101.0, 1286.0, 3101.0, 3101.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[33952.0, 156012.0, 268496.0, 19810.0, 274293.0]</t>
+    <t>[274049.0, 113713.0, 274750.0, 37835.0, 46736.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97041.0, 96149.0, 96225.0, 97040.0, 96169.0]</t>
+    <t>[97041.0, 97118.0, 96135.0, 97329.0, 97329.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 5.0, 0.0]</t>
+    <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -299,37 +299,40 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[308.0, 300.0, 297.0, 160.0, 160.0]</t>
+    <t>[266.0, 192.0, 900.0, 480.0, 300.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[153.0, 74.0, 250.0, 204.0, 320.0]</t>
+    <t>[160.0, 168.0, 55.0, 100.0, 480.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1928.0, 1984.0, 1921.0, 1980.0, 1957.0]</t>
+    <t>[1933.0, 1980.0, 1946.0, 1927.0, 1999.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
+    <t>[2.0, 2.0, 1.0, 2.0, 1.0]</t>
+  </si>
+  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[165000.0, 102300.0, 51841.0, 61177.0, 321443.0]</t>
+    <t>[147543.0, 91238.0, 48765.0, 10176.0, 622573.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[696000.0, 344129.0, 287358.0, 600000.0, 391168.0]</t>
+    <t>[305561.0, 538226.0, 650000.0, 7078454.0, 167340.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -341,13 +344,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[103599.0, 396263.0, 47915.0, 274204.0, 242551.0]</t>
+    <t>[220600.0, 329747.0, 271319.0, 236665.0, 100054.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[2603.22, 5198.4, 794.25, 5533.08, 1152.36]</t>
+    <t>[6494.79, 25408.5, 7002.17, 11308.66, 9840.72]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -359,13 +362,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 13.0, 14.0, 14.0, 8.0]</t>
+    <t>[14.0, 14.0, 15.0, 15.0, 9.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60374620012000.0, 60373103003004.0, 61110085002007.0, 60375405023006.0, 60590016023002.0]</t>
+    <t>[60375705024010.0, 60375514012000.0, 60371288012003.0, 60378003244003.0, 60372140003003.0]</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,23 +809,24 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="100"/>
-    <col customWidth="1" max="4" min="4" width="21"/>
-    <col customWidth="1" max="5" min="5" width="18"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="100"/>
+    <col customWidth="1" max="5" min="5" width="21"/>
     <col customWidth="1" max="6" min="6" width="24"/>
     <col customWidth="1" max="7" min="7" width="24"/>
-    <col customWidth="1" max="8" min="8" width="25.5"/>
+    <col customWidth="1" max="8" min="8" width="24"/>
+    <col customWidth="1" max="9" min="9" width="25.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="0" spans="1:8"/>
-    <row customHeight="1" ht="20" r="1" spans="1:8">
+    <row customHeight="1" ht="20" r="0" spans="1:9"/>
+    <row customHeight="1" ht="20" r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -840,256 +844,286 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>298521</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>10711728</v>
-      </c>
       <c r="F2" s="4" t="n">
-        <v>12546039</v>
+        <v>10711734</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>168183611</v>
+        <v>12547098</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7887696.464638196</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="3" spans="1:8">
+        <v>168183612</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>8038587.41407266</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>3.159726687527179</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.101263650215305</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>538</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2376</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>468.7399708130427</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.078767087235782</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.273178085275808</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.4869350168899946</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.144561010097868</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="I9" s="4" t="n">
+        <v>1.805419774820108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.351704658989587</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>544</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>8516</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>815.8693891750305</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="H10" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="I10" s="4" t="n">
+        <v>1.000876170000765</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.080087804848748</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.279200185379511</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.5209368126273334</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.808831500431643</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.002403428140191</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E11" s="4" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>66</v>
@@ -1098,336 +1132,375 @@
         <v>66</v>
       </c>
       <c r="H11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="12" spans="1:8">
+    <row customHeight="1" ht="20" r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2527</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1287</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>31303</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>657.6915680365446</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>6993</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>1574</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>268779</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1433.993595638469</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>6481</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>1542</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>84358</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>938.4452492191571</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>2400</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>375.3695203123949</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>4268</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>2171</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>268779</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>4225.664296791314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>2560</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="F17" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <v>1284</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>10598</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>626.012790187926</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>6939</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>1574</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>221276</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1458.664835872536</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>6455</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>1540</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>52503</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>929.9963693593733</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>108</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>1260</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>2176</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>351.5478465785827</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>4230</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>302</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>2183</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>221276</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>4364.656879903817</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>2592</v>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="G17" s="4" t="n">
+        <v>1288</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>31303</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>683.8635312115355</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1492</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>190</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>1944</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>29104</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>1888.76754229903</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="19" spans="1:9">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>1285</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>20618</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>667.9212786939352</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1496</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>220</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>2030.5</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1947.734606843461</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>6037</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>6037</v>
       </c>
       <c r="G19" s="4" t="n">
+        <v>6037</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <v>6111</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>20.25947184119465</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="20" spans="1:8">
+      <c r="I19" s="4" t="n">
+        <v>20.18438491738583</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>0.4594108153080332</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="21" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>0.4527600036377329</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="E21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="H21" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>0.9931934312724874</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="22" spans="1:8">
+      <c r="I21" s="4" t="n">
+        <v>0.9914988656639545</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="E22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="F22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="G22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>0.6147606020109194</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="23" spans="1:8">
+      <c r="I22" s="4" t="n">
+        <v>0.6211281306997349</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>1188</v>
-      </c>
       <c r="E23" s="4" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="G23" s="4" t="n">
         <v>441</v>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>7339</v>
-      </c>
       <c r="H23" s="4" t="n">
-        <v>246.1776557850097</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="24" spans="1:8">
+        <v>7415</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>247.7170947053494</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E24" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
         <v/>
@@ -1438,123 +1511,138 @@
       <c r="H24" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="25" spans="1:8">
+      <c r="I24" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>11</v>
-      </c>
       <c r="E25" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="H25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>3.270934252341046</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="26" spans="1:8">
+      <c r="I25" s="4" t="n">
+        <v>3.286131831363972</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="26" spans="1:9">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>219754</v>
-      </c>
       <c r="E26" s="4" t="n">
-        <v>33324388</v>
+        <v>219918</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>34008595</v>
+        <v>33339295</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>34819602</v>
+        <v>34006868</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>243472.7348572878</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="27" spans="1:8">
+        <v>34819650</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>243160.0592092609</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>226386</v>
-      </c>
       <c r="E27" s="4" t="n">
-        <v>-119475391</v>
+        <v>226171</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>-118172790</v>
+        <v>-119475324</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>-117554482</v>
+        <v>-118173000</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>345690.3760912439</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="28" spans="1:8">
+        <v>-117554343</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>344440.5228050227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>31222</v>
-      </c>
       <c r="E28" s="4" t="n">
-        <v>108</v>
+        <v>31063</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>7001</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>7159899</v>
+        <v>7000</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>103643.7254531407</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="29" spans="1:8">
+        <v>20313244</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>109591.9660103425</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="29" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
@@ -1566,47 +1654,53 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="30" spans="1:8">
+    <row customHeight="1" ht="20" r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>438</v>
-      </c>
       <c r="E30" s="4" t="n">
-        <v>28</v>
+        <v>445</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>495</v>
+        <v>20</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>3600</v>
+        <v>496</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>163.5049547684068</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="31" spans="1:8">
+        <v>3200</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>161.4689831518353</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
@@ -1618,21 +1712,24 @@
         <v>1</v>
       </c>
       <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="32" spans="1:8">
+    <row customHeight="1" ht="20" r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
@@ -1644,21 +1741,24 @@
         <v>1</v>
       </c>
       <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="33" spans="1:8">
+    <row customHeight="1" ht="20" r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
@@ -1670,24 +1770,27 @@
         <v>1</v>
       </c>
       <c r="H33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="34" spans="1:8">
+    <row customHeight="1" ht="20" r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>143</v>
-      </c>
       <c r="E34" s="4" t="n">
-        <v/>
+        <v>135</v>
       </c>
       <c r="F34" s="4" t="n">
         <v/>
@@ -1698,48 +1801,54 @@
       <c r="H34" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="35" spans="1:8">
+      <c r="I34" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="E35" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="F35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="G35" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>15.96268834242644</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="36" spans="1:8">
+      <c r="I35" s="4" t="n">
+        <v>15.99074621768091</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>2929</v>
-      </c>
       <c r="E36" s="4" t="n">
-        <v/>
+        <v>2961</v>
       </c>
       <c r="F36" s="4" t="n">
         <v/>
@@ -1750,178 +1859,199 @@
       <c r="H36" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="37" spans="1:8">
+      <c r="I36" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="37" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>77012</v>
-      </c>
       <c r="E37" s="4" t="n">
+        <v>77065</v>
+      </c>
+      <c r="F37" s="4" t="n">
         <v>60371011.101</v>
       </c>
-      <c r="F37" s="4" t="n">
-        <v>60375712.00200401</v>
-      </c>
       <c r="G37" s="4" t="n">
-        <v>61110091.00300501</v>
+        <v>60375713.0020005</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>201078.0940550267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="38" spans="1:8">
+        <v>61110091.003009</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>200328.8635020969</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>185</v>
-      </c>
       <c r="E38" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="F38" s="4" t="n">
         <v>3491</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="G38" s="4" t="n">
         <v>25218</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>396556</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>50494.36507936323</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="39" spans="1:8">
+      <c r="I38" s="4" t="n">
+        <v>50700.28485795169</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="E39" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="F39" s="4" t="n">
         <v>1286</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>3101</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>788.1217716763699</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="40" spans="1:8">
+        <v>3101</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>789.0467981145318</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>517</v>
-      </c>
       <c r="E40" s="4" t="n">
+        <v>515</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>6952</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="G40" s="4" t="n">
         <v>118920</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>764167</v>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>165711.2046696858</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="41" spans="1:8">
+      <c r="I40" s="4" t="n">
+        <v>165096.6994012263</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>389</v>
-      </c>
       <c r="E41" s="4" t="n">
+        <v>393</v>
+      </c>
+      <c r="F41" s="4" t="n">
         <v>95982</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="G41" s="4" t="n">
         <v>96377</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>399675</v>
       </c>
-      <c r="H41" s="4" t="n">
-        <v>3913.506253446123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="42" spans="1:8">
+      <c r="I41" s="4" t="n">
+        <v>3314.900833012844</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="4" t="n">
-        <v>21</v>
-      </c>
       <c r="E42" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2.839309889211528</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="43" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>2.857340863062898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>7</v>
@@ -1930,206 +2060,230 @@
         <v>7</v>
       </c>
       <c r="H43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="44" spans="1:8">
+    <row customHeight="1" ht="20" r="44" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.1110547874700786</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="45" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>0.1115386481002913</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="45" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <v>3</v>
-      </c>
       <c r="E45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="G45" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G45" s="4" t="n">
-        <v>13</v>
-      </c>
       <c r="H45" s="4" t="n">
-        <v>0.4111925217472083</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="46" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>0.2425086090936107</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="4" t="n">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>685</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.958172946621181</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="47" spans="1:8">
+        <v>502</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>1.45541541430923</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="47" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>884</v>
-      </c>
       <c r="E47" s="4" t="n">
-        <v>11</v>
+        <v>892</v>
       </c>
       <c r="F47" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="4" t="n">
         <v>270</v>
       </c>
-      <c r="G47" s="4" t="n">
-        <v>3303</v>
-      </c>
       <c r="H47" s="4" t="n">
-        <v>225.7163608841136</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="48" spans="1:8">
+        <v>4338</v>
+      </c>
+      <c r="I47" s="4" t="n">
+        <v>230.5072087534735</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="48" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>168</v>
-      </c>
       <c r="E48" s="4" t="n">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>204.5</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>3668</v>
+        <v>174</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>419.568426267978</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="49" spans="1:8">
+        <v>3000</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>393.4296780571614</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="49" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <v>140</v>
-      </c>
       <c r="E49" s="4" t="n">
-        <v>1825</v>
+        <v>139</v>
       </c>
       <c r="F49" s="4" t="n">
+        <v>1808</v>
+      </c>
+      <c r="G49" s="4" t="n">
         <v>1963</v>
       </c>
-      <c r="G49" s="4" t="n">
+      <c r="H49" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>23.41849821518234</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="50" spans="1:8">
+      <c r="I49" s="4" t="n">
+        <v>23.43028795579885</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="50" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.5349498153237043</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="51" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>0.5594065286022226</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E51" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
         <v/>
@@ -2140,152 +2294,170 @@
       <c r="H51" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="52" spans="1:8">
+      <c r="I51" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>135020</v>
+        <v>10</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1</v>
+        <v>134822</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>122777</v>
+        <v>1</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>64237000</v>
+        <v>122397</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>321574.5532967097</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="53" spans="1:8">
+        <v>75501450</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>342166.7133878986</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>158377</v>
+        <v>10</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>9</v>
+        <v>158277</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>306527</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>88833748</v>
+        <v>307000</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>692745.843458069</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="54" spans="1:8">
+        <v>89072672</v>
+      </c>
+      <c r="I53" s="4" t="n">
+        <v>689065.076309402</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>2004</v>
+        <v>4</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.03923779795012636</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="55" spans="1:8">
+        <v>2016</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>0.02245547890531515</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="4" t="n">
         <v>137569</v>
       </c>
-      <c r="E55" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F55" s="4" t="n">
-        <v>167572.5</v>
+        <v>3</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>76498500</v>
+        <v>167290</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>472115.6189809269</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="56" spans="1:8">
+        <v>56498263</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>446773.5422432989</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" s="4" t="n">
-        <v>248473</v>
+        <v>10</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E56" s="4" t="n">
+        <v>248739</v>
+      </c>
+      <c r="F56" s="4" t="n">
         <v>5.02</v>
       </c>
-      <c r="F56" s="4" t="n">
-        <v>3996.325</v>
-      </c>
       <c r="G56" s="4" t="n">
-        <v>2772707.63</v>
+        <v>3997.76</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>9751.765429252235</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="57" spans="1:8">
+        <v>2295498.16</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>9298.19767883342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="4" t="n">
-        <v>1</v>
+      <c r="C57" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
         <v/>
@@ -2296,57 +2468,66 @@
       <c r="H57" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="58" spans="1:8">
+      <c r="I57" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F58" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>96</v>
-      </c>
       <c r="H58" s="4" t="n">
-        <v>2.41828125956623</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="59" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>2.459597138247322</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>75752</v>
+        <v>10</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>-1</v>
+        <v>75738</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>60375714005009</v>
+        <v>60371011101000</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>61110091003005</v>
+        <v>60375715043005.5</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>230465536753.9406</v>
+        <v>61110091003023</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>200624213626.5026</v>
       </c>
     </row>
   </sheetData>
@@ -2367,17 +2548,25 @@
       <formula>B2="date"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D59">
+  <conditionalFormatting sqref="C2:C59">
     <cfRule dxfId="0" priority="6" stopIfTrue="1" type="expression">
-      <formula>D2=0</formula>
-    </cfRule>
-    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
-      <formula>D2=1</formula>
+      <formula>C2=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="E2:E59">
+    <cfRule dxfId="0" priority="7" stopIfTrue="1" type="expression">
+      <formula>E2=0</formula>
+    </cfRule>
+    <cfRule dxfId="0" priority="8" stopIfTrue="1" type="expression">
+      <formula>E2=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59" type="list">
       <formula1>"key,numeric,str,date"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59" type="list">
+      <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/test/output/data_schema_properties_2016_sample.xlsx
+++ b/test/output/data_schema_properties_2016_sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>column</t>
   </si>
@@ -32,6 +32,9 @@
     <t>sample_num_uni</t>
   </si>
   <si>
+    <t>sample_uni_percentage</t>
+  </si>
+  <si>
     <t>sample_min</t>
   </si>
   <si>
@@ -50,7 +53,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[11017285, 14382681, 14052885, 12028408, 14488601]</t>
+    <t>[14643991, 14031685, 12353733, 10968944, 14058823]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -68,37 +71,37 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[192.0, 728.0, 414.0, 179.0, 386.0]</t>
+    <t>[699.0, 1056.0, 570.0, 616.0, 272.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[3.0, 3.0, 2.0, 1.0, 3.0]</t>
+    <t>[2.0, 2.0, 2.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[5.0, 2.0, 4.0, 2.0, 3.0]</t>
+    <t>[3.0, 4.0, 3.0, 1.0, 4.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 4.0, 4.0, 3.0]</t>
+    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[4.0, 4.0, 7.0, 7.0, 7.0]</t>
+    <t>[7.0, 7.0, 7.0, 7.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[3.0, 3.0, 1.5, 1.0, 1.0]</t>
+    <t>[2.0, 3.0, 3.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -110,70 +113,73 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[1110.0, 1231.0, 620.0, 1274.0, 3385.0]</t>
+    <t>[2750.0, 1608.0, 1075.0, 1826.0, 964.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1515.0, 1117.0, 1195.0, 2340.0, 1248.0]</t>
+    <t>[1128.0, 2216.0, 1083.0, 2048.0, 3981.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1826.0, 4764.0, 813.0, 960.0, 1783.0]</t>
+    <t>[1442.0, 3029.0, 3653.0, 1635.0, 1506.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1536.0, 1440.0, 672.0, 672.0, 960.0]</t>
+    <t>[1100.0, 1440.0, 1296.0, 1344.0, 1000.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[6498.0, 1764.0, 1656.0, 1648.0, 933.0]</t>
+    <t>[1456.0, 2774.0, 2547.0, 4846.0, 5216.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1608.0, 1715.0, 1305.0, 1057.0, 1406.0]</t>
+    <t>[1120.0, 2097.0, 855.0, 1462.0, 1858.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2030.0, 1430.0, 1180.0, 756.0, 1794.0]</t>
+    <t>[2086.0, 1316.0, 544.0, 1475.0, 2629.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037.0, 6059.0, 6059.0, 6037.0, 6037.0]</t>
+    <t>[6037.0, 6037.0, 6059.0, 6037.0, 6037.0]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
   </si>
   <si>
+    <t>[1.0, 2.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 3.0, 2.0, 1.0]</t>
+    <t>[2.0, 2.0, 2.0, 3.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 1.0, 1.0, 1.0, 2.0]</t>
+    <t>[2.0, 2.0, 2.0, 1.0, 3.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[400.0, 400.0, 525.0, 480.0, 712.0]</t>
+    <t>[440.0, 504.0, 462.0, 430.0, 560.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -188,25 +194,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 7.0, 6.0, 2.0]</t>
+    <t>[7.0, 7.0, 2.0, 2.0, 2.0]</t>
   </si>
   <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33532700.0, 34015213.0, 33857580.0, 33736544.0, 34005594.0]</t>
+    <t>[33992573.0, 34354983.0, 34176575.0, 33944152.0, 34031700.0]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118186308.0, -118241868.0, -118549778.0, -118441839.0, -118385423.0]</t>
+    <t>[-118137047.0, -118048105.0, -117822409.0, -117985878.0, -118090613.0]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[6432.0, 5304.0, 7161.0, 3557.0, 4720.0]</t>
+    <t>[5325.0, 10519.0, 860.0, 4995.0, 3597.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -215,7 +221,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[800.0, 609.0, 560.0, 449.0, 561.0]</t>
+    <t>[450.0, 672.0, 444.0, 512.0, 684.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -230,55 +236,55 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['122', '0101', '0100', '122', '0100']</t>
+    <t>['0100', '122', '122', '0200', '122']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261.0, 247.0, 261.0, 261.0, 263.0]</t>
+    <t>[261.0, 261.0, 261.0, 261.0, 261.0]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['DUR1', 'LAR1', 'AHR3*', 'LKR1YY', 'ATA10000*']</t>
+    <t>['CARS*', 'LVPR3D*', 'LCR1YY', 'LBR1N', 'TORR-LO']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60375714.004006006, 60371201.051005006, 60375527.001015, 60590423.124019, 60372640.003003]</t>
+    <t>[61110052.022041, 60379108.071002, 60375032.012003005, 61110074.033, 60371194.004002005]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[40227.0, 47019.0, 53571.0, 16764.0, 46098.0]</t>
+    <t>[12447.0, 33252.0, 24832.0, 39306.0, 24245.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
   </si>
   <si>
-    <t>[1286.0, 3101.0, 1286.0, 3101.0, 3101.0]</t>
+    <t>[1286.0, 1286.0, 3101.0, 3101.0, 1286.0]</t>
   </si>
   <si>
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[274049.0, 113713.0, 274750.0, 37835.0, 46736.0]</t>
+    <t>[113910.0, 273539.0, 274514.0, 46736.0, 47950.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97041.0, 97118.0, 96135.0, 97329.0, 97329.0]</t>
+    <t>[96242.0, 96341.0, 97116.0, 96295.0, 96989.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
   </si>
   <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <t>[5.0, 0.0, 0.0, 0.0, 0.0]</t>
   </si>
   <si>
     <t>storytypeid</t>
@@ -299,25 +305,25 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[266.0, 192.0, 900.0, 480.0, 300.0]</t>
+    <t>[208.0, 200.0, 135.0, 51.0, 388.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[160.0, 168.0, 55.0, 100.0, 480.0]</t>
+    <t>[701.0, 33.0, 92.0, 400.0, 264.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1933.0, 1980.0, 1946.0, 1927.0, 1999.0]</t>
+    <t>[2007.0, 1930.0, 1924.0, 1971.0, 2014.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 1.0, 2.0, 1.0]</t>
+    <t>[2.0, 1.0, 1.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>fireplaceflag</t>
@@ -326,13 +332,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[147543.0, 91238.0, 48765.0, 10176.0, 622573.0]</t>
+    <t>[96898.0, 670169.0, 86142.0, 26689.0, 43038.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[305561.0, 538226.0, 650000.0, 7078454.0, 167340.0]</t>
+    <t>[215500.0, 388334.0, 619888.0, 1242236.0, 2878211.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -344,13 +350,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[220600.0, 329747.0, 271319.0, 236665.0, 100054.0]</t>
+    <t>[150957.0, 2035465.0, 390018.0, 291612.0, 30098.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[6494.79, 25408.5, 7002.17, 11308.66, 9840.72]</t>
+    <t>[4069.26, 3057.66, 2142.46, 5660.86, 2771.33]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -362,13 +368,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[14.0, 14.0, 15.0, 15.0, 9.0]</t>
+    <t>[11.0, 15.0, 14.0, 12.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60375705024010.0, 60375514012000.0, 60371288012003.0, 60378003244003.0, 60372140003003.0]</t>
+    <t>[60376039001007.0, 60371414001005.0, 60375743006004.0, 60371193101000.0, 60376503005008.0]</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,16 +816,17 @@
     <col customWidth="1" max="1" min="1" width="42"/>
     <col customWidth="1" max="2" min="2" width="15"/>
     <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="100"/>
+    <col customWidth="1" max="4" min="4" width="80"/>
     <col customWidth="1" max="5" min="5" width="21"/>
-    <col customWidth="1" max="6" min="6" width="24"/>
+    <col customWidth="1" max="6" min="6" width="31.5"/>
     <col customWidth="1" max="7" min="7" width="24"/>
     <col customWidth="1" max="8" min="8" width="24"/>
-    <col customWidth="1" max="9" min="9" width="25.5"/>
+    <col customWidth="1" max="9" min="9" width="24"/>
+    <col customWidth="1" max="10" min="10" width="25.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="0" spans="1:9"/>
-    <row customHeight="1" ht="20" r="1" spans="1:9">
+    <row customHeight="1" ht="20" r="0" spans="1:10"/>
+    <row customHeight="1" ht="20" r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,286 +854,316 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>298521</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10711734</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12547098</v>
+        <v>10711728</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>168183612</v>
+        <v>12547816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8038587.41407266</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="3" spans="1:9">
+        <v>168183609</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>8051990.717213204</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>3.159726687527179</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="4" spans="1:9">
+      <c r="J3" s="4" t="n">
+        <v>3.099476393986861</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>0.009650000000000001</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="I4" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>2.101263650215305</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="5" spans="1:9">
+      <c r="J4" s="4" t="n">
+        <v>2.208210330564305</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>0.85802</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>538</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>2376</v>
+        <v>544</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>468.7399708130427</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="6" spans="1:9">
+        <v>3560</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>535.1195767665439</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="H6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="I6" s="4" t="n">
-        <v>1.078767087235782</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="7" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.077427458613727</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>19</v>
       </c>
       <c r="F7" s="4" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="I7" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="I7" s="4" t="n">
-        <v>1.273178085275808</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="8" spans="1:9">
+      <c r="J7" s="4" t="n">
+        <v>1.274065095074726</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1</v>
+        <v>0.00402</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="I8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="n">
-        <v>0.4869350168899946</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="9" spans="1:9">
+      <c r="J8" s="4" t="n">
+        <v>0.4938744834264721</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>1</v>
+        <v>5e-05</v>
       </c>
       <c r="G9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="I9" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="n">
-        <v>1.805419774820108</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="10" spans="1:9">
+      <c r="J9" s="4" t="n">
+        <v>1.805115760484784</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>28</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="I10" s="4" t="n">
-        <v>1.000876170000765</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="11" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>1.001224511150017</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>66</v>
+        <v>0.00059</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>66</v>
@@ -1135,375 +1172,414 @@
         <v>66</v>
       </c>
       <c r="I11" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="12" spans="1:9">
+    <row customHeight="1" ht="20" r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>2527</v>
+        <v>2587</v>
       </c>
       <c r="F12" s="4" t="n">
+        <v>0.12734</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>1280</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>10945</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>628.5259116439631</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>7005</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1572</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>952576</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>2266.005575236257</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>6519</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>0.02405</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1539</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>55732</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>943.4655760778047</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.13653</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>192</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>1248</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>2176</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>357.8865790270228</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>4219</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>0.22306</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>294</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>2160</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>220918</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>4188.87529178027</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>2614</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0.12867</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>1280</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>25686</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>671.4491910937163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1287</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>31303</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>657.6915680365446</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>6993</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>1574</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>268779</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>1433.993595638469</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>6481</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>1542</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>84358</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>938.4452492191571</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>103</v>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>120</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>1296</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>2400</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>375.3695203123949</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>4268</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>112</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>2171</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>268779</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>4225.664296791314</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>1288</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>31303</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>683.8635312115355</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E18" s="4" t="n">
-        <v>1492</v>
+        <v>1466</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>190</v>
+        <v>0.6571</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1944</v>
+        <v>284</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>29104</v>
+        <v>1951</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>1888.76754229903</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="19" spans="1:9">
+        <v>952576</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>20232.28501237382</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>6037</v>
+        <v>1e-05</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>6037</v>
       </c>
       <c r="H19" s="4" t="n">
+        <v>6037</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>6111</v>
       </c>
-      <c r="I19" s="4" t="n">
-        <v>20.18438491738583</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="20" spans="1:9">
+      <c r="J19" s="4" t="n">
+        <v>20.25073615295686</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>1</v>
+        <v>0.00026</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>0.4527600036377329</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="21" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <v>0.4633454669419911</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>1</v>
+        <v>6e-05</v>
       </c>
       <c r="G21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>18</v>
-      </c>
       <c r="I21" s="4" t="n">
-        <v>0.9914988656639545</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="22" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <v>0.9916064988414341</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="n">
+        <v>0.00018</v>
+      </c>
+      <c r="G22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>24</v>
-      </c>
       <c r="I22" s="4" t="n">
-        <v>0.6211281306997349</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>0.6106864114458199</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>1206</v>
+        <v>1222</v>
       </c>
       <c r="F23" s="4" t="n">
+        <v>0.01384</v>
+      </c>
+      <c r="G23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="H23" s="4" t="n">
         <v>441</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>7415</v>
-      </c>
       <c r="I23" s="4" t="n">
-        <v>247.7170947053494</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="24" spans="1:9">
+        <v>4760</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>245.6111369285917</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v/>
+        <v>0.00015</v>
       </c>
       <c r="G24" s="4" t="n">
         <v/>
@@ -1514,141 +1590,156 @@
       <c r="I24" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="25" spans="1:9">
+      <c r="J24" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>12</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>1</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="G25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="I25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="I25" s="4" t="n">
-        <v>3.286131831363972</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="26" spans="1:9">
+      <c r="J25" s="4" t="n">
+        <v>3.299040934606661</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>219918</v>
+        <v>220115</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>33339295</v>
+        <v>0.74027</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>34006868</v>
+        <v>33324388</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>34819650</v>
+        <v>34008707</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>243160.0592092609</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="27" spans="1:9">
+        <v>34819603</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>243588.5603870625</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>226171</v>
+        <v>226499</v>
       </c>
       <c r="F27" s="4" t="n">
+        <v>0.76174</v>
+      </c>
+      <c r="G27" s="4" t="n">
         <v>-119475324</v>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>-118173000</v>
-      </c>
       <c r="H27" s="4" t="n">
-        <v>-117554343</v>
+        <v>-118172000</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>344440.5228050227</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="28" spans="1:9">
+        <v>-117554738</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>345356.9228294867</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>31063</v>
+        <v>31281</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>113</v>
+        <v>0.11544</v>
       </c>
       <c r="G28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>20313244</v>
-      </c>
       <c r="I28" s="4" t="n">
-        <v>109591.9660103425</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="29" spans="1:9">
+        <v>15585629</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>113094.9267989236</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>1</v>
+        <v>2e-05</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>1</v>
@@ -1657,56 +1748,62 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="30" spans="1:9">
+    <row customHeight="1" ht="20" r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F30" s="4" t="n">
+        <v>0.16747</v>
+      </c>
+      <c r="G30" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>496</v>
-      </c>
       <c r="H30" s="4" t="n">
-        <v>3200</v>
+        <v>500</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>161.4689831518353</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="31" spans="1:9">
+        <v>2576</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <v>159.0058802033506</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>1</v>
+        <v>0.00028</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
@@ -1715,27 +1812,30 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="32" spans="1:9">
+    <row customHeight="1" ht="20" r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>1</v>
+        <v>0.00031</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>1</v>
@@ -1744,27 +1844,30 @@
         <v>1</v>
       </c>
       <c r="I32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="33" spans="1:9">
+    <row customHeight="1" ht="20" r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>1</v>
+        <v>2e-05</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>1</v>
@@ -1773,27 +1876,30 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="34" spans="1:9">
+    <row customHeight="1" ht="20" r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v/>
+        <v>0.00048</v>
       </c>
       <c r="G34" s="4" t="n">
         <v/>
@@ -1804,54 +1910,60 @@
       <c r="I34" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="35" spans="1:9">
+      <c r="J34" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>15</v>
       </c>
       <c r="F35" s="4" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="G35" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="H35" s="4" t="n">
         <v>261</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="I35" s="4" t="n">
         <v>275</v>
       </c>
-      <c r="I35" s="4" t="n">
-        <v>15.99074621768091</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="36" spans="1:9">
+      <c r="J35" s="4" t="n">
+        <v>15.70993671279466</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v/>
+        <v>0.01494</v>
       </c>
       <c r="G36" s="4" t="n">
         <v/>
@@ -1862,199 +1974,220 @@
       <c r="I36" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="37" spans="1:9">
+      <c r="J36" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>77065</v>
+        <v>77030</v>
       </c>
       <c r="F37" s="4" t="n">
+        <v>0.25906</v>
+      </c>
+      <c r="G37" s="4" t="n">
         <v>60371011.101</v>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>60375713.0020005</v>
-      </c>
       <c r="H37" s="4" t="n">
-        <v>61110091.003009</v>
+        <v>60375711.022004</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>200328.8635020969</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="38" spans="1:9">
+        <v>61110091.00300501</v>
+      </c>
+      <c r="J37" s="4" t="n">
+        <v>200991.8352036387</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>184</v>
       </c>
       <c r="F38" s="4" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="G38" s="4" t="n">
         <v>3491</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="H38" s="4" t="n">
         <v>25218</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="I38" s="4" t="n">
         <v>396556</v>
       </c>
-      <c r="I38" s="4" t="n">
-        <v>50700.28485795169</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="39" spans="1:9">
+      <c r="J38" s="4" t="n">
+        <v>50642.20910241286</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="39" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G39" s="4" t="n">
         <v>1286</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v>3101</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>3101</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>789.0467981145318</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="40" spans="1:9">
+        <v>3101</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>787.558908012297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F40" s="4" t="n">
+        <v>0.00445</v>
+      </c>
+      <c r="G40" s="4" t="n">
         <v>6952</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="H40" s="4" t="n">
         <v>118920</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="I40" s="4" t="n">
         <v>764167</v>
       </c>
-      <c r="I40" s="4" t="n">
-        <v>165096.6994012263</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="41" spans="1:9">
+      <c r="J40" s="4" t="n">
+        <v>166752.5988630635</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F41" s="4" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="G41" s="4" t="n">
         <v>95982</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="H41" s="4" t="n">
         <v>96377</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="I41" s="4" t="n">
         <v>399675</v>
       </c>
-      <c r="I41" s="4" t="n">
-        <v>3314.900833012844</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="42" spans="1:9">
+      <c r="J41" s="4" t="n">
+        <v>3496.339720389989</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="42" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>2.857340863062898</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="43" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>2.837685882637976</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="43" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>7</v>
+        <v>0.00617</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>7</v>
@@ -2063,230 +2196,254 @@
         <v>7</v>
       </c>
       <c r="I43" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="44" spans="1:9">
+    <row customHeight="1" ht="20" r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1</v>
+        <v>0.00019</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>0.1115386481002913</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="45" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J44" s="4" t="n">
+        <v>0.1218783175695608</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F45" s="4" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="G45" s="4" t="n">
         <v>4</v>
-      </c>
-      <c r="G45" s="4" t="n">
-        <v>6</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>6</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.2425086090936107</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="46" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J45" s="4" t="n">
+        <v>0.2165968853518654</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1</v>
+        <v>0.00019</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.45541541430923</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="47" spans="1:9">
+        <v>997</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>2.731398067357671</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>10</v>
+        <v>0.10792</v>
       </c>
       <c r="G47" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="n">
         <v>270</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>4338</v>
-      </c>
       <c r="I47" s="4" t="n">
-        <v>230.5072087534735</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="48" spans="1:9">
+        <v>4916</v>
+      </c>
+      <c r="J47" s="4" t="n">
+        <v>224.6495965525682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="48" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>20</v>
+        <v>0.59498</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>3000</v>
+        <v>160</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>393.4296780571614</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="49" spans="1:9">
+        <v>2753</v>
+      </c>
+      <c r="J48" s="4" t="n">
+        <v>328.1266351285313</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="49" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1808</v>
+        <v>0.00049</v>
       </c>
       <c r="G49" s="4" t="n">
+        <v>1805</v>
+      </c>
+      <c r="H49" s="4" t="n">
         <v>1963</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="I49" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="I49" s="4" t="n">
-        <v>23.43028795579885</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="50" spans="1:9">
+      <c r="J49" s="4" t="n">
+        <v>23.41265783380173</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.5594065286022226</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="51" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J50" s="4" t="n">
+        <v>0.5356870110589889</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="51" spans="1:10">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E51" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v/>
+        <v>0.002</v>
       </c>
       <c r="G51" s="4" t="n">
         <v/>
@@ -2297,170 +2454,188 @@
       <c r="I51" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="52" spans="1:9">
+      <c r="J51" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="52" spans="1:10">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>134822</v>
+        <v>135157</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>0.46133</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>122397</v>
+        <v>5</v>
       </c>
       <c r="H52" s="4" t="n">
+        <v>122478</v>
+      </c>
+      <c r="I52" s="4" t="n">
         <v>75501450</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>342166.7133878986</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="53" spans="1:9">
+      <c r="J52" s="4" t="n">
+        <v>316703.1711543049</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="53" spans="1:10">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>158277</v>
+        <v>158498</v>
       </c>
       <c r="F53" s="4" t="n">
+        <v>0.53871</v>
+      </c>
+      <c r="G53" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G53" s="4" t="n">
-        <v>307000</v>
-      </c>
       <c r="H53" s="4" t="n">
-        <v>89072672</v>
+        <v>306000</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>689065.076309402</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="54" spans="1:9">
+        <v>88833748</v>
+      </c>
+      <c r="J53" s="4" t="n">
+        <v>656455.9979481297</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="54" spans="1:10">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>2012</v>
+        <v>2e-05</v>
       </c>
       <c r="G54" s="4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H54" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="H54" s="4" t="n">
-        <v>2016</v>
-      </c>
       <c r="I54" s="4" t="n">
-        <v>0.02245547890531515</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="55" spans="1:9">
+        <v>2015</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>0.03915733472580235</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="55" spans="1:10">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>137569</v>
+        <v>137551</v>
       </c>
       <c r="F55" s="4" t="n">
+        <v>0.47141</v>
+      </c>
+      <c r="G55" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>167290</v>
-      </c>
       <c r="H55" s="4" t="n">
-        <v>56498263</v>
+        <v>167016.5</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>446773.5422432989</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="56" spans="1:9">
+        <v>45000000</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>436840.1090571521</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="56" spans="1:10">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>248739</v>
+        <v>248394</v>
       </c>
       <c r="F56" s="4" t="n">
+        <v>0.84105</v>
+      </c>
+      <c r="G56" s="4" t="n">
         <v>5.02</v>
       </c>
-      <c r="G56" s="4" t="n">
-        <v>3997.76</v>
-      </c>
       <c r="H56" s="4" t="n">
-        <v>2295498.16</v>
+        <v>3989.82</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>9298.19767883342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="57" spans="1:9">
+        <v>1548030.07</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>8383.147070901008</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="57" spans="1:10">
       <c r="A57" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v/>
+        <v>0.00018</v>
       </c>
       <c r="G57" s="4" t="n">
         <v/>
@@ -2471,63 +2646,72 @@
       <c r="I57" s="4" t="n">
         <v/>
       </c>
-    </row>
-    <row customHeight="1" ht="20" r="58" spans="1:9">
+      <c r="J57" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="58" spans="1:10">
       <c r="A58" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>2</v>
+        <v>0.00299</v>
       </c>
       <c r="G58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="H58" s="4" t="n">
-        <v>95</v>
-      </c>
       <c r="I58" s="4" t="n">
-        <v>2.459597138247322</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20" r="59" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>2.459099764938323</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20" r="59" spans="1:10">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>75738</v>
+        <v>75715</v>
       </c>
       <c r="F59" s="4" t="n">
+        <v>0.26017</v>
+      </c>
+      <c r="G59" s="4" t="n">
         <v>60371011101000</v>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>60375715043005.5</v>
-      </c>
       <c r="H59" s="4" t="n">
-        <v>61110091003023</v>
+        <v>60375714001001</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>200624213626.5026</v>
+        <v>61110091003005</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>201262876162.8584</v>
       </c>
     </row>
   </sheetData>
